--- a/Src/Assets/Common/Tables/Tables/Space.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Space.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game-maker\1-NewClap\CCA\Src\Clap\Assets\Common\Tables\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game-maker\0_CCA_new\Src\Assets\Common\Tables\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E2504-F973-4BB3-8A22-E276A2806D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA7A0BE-C626-48A7-9FE6-9C9A1F6A53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="4110" windowWidth="19200" windowHeight="11170" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerSpacing" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Key</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -38,36 +38,34 @@
     <t>[0]</t>
   </si>
   <si>
-    <t>[-250,250]</t>
-  </si>
-  <si>
-    <t>[-300,0,300]</t>
-  </si>
-  <si>
-    <t>[-80,120,80]</t>
-  </si>
-  <si>
-    <t>[-360,-200,200,360]</t>
-  </si>
-  <si>
-    <t>[-400,-200,0,200,400]</t>
-  </si>
-  <si>
-    <t>[-80,0,80,0,-80]</t>
-  </si>
-  <si>
-    <t>[-550,-320,-100,100,320,550]</t>
-  </si>
-  <si>
     <t>[0]</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>[-80,0,80,80,0,-80]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[-120,40,40,120]</t>
+    <t>[-2,2]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-3,0,3]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1.5,1]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-5,-2.5,0,2.5,5]</t>
+  </si>
+  <si>
+    <t>[-1,0,1,0,-1]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-5,-2,2,5]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.5,2,2,-0.5]</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -308,8 +306,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AAE696F-C7CE-4533-8F63-E9BDB46E5712}" name="表1_3" displayName="表1_3" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{6AAE696F-C7CE-4533-8F63-E9BDB46E5712}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AAE696F-C7CE-4533-8F63-E9BDB46E5712}" name="表1_3" displayName="表1_3" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{6AAE696F-C7CE-4533-8F63-E9BDB46E5712}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{A660036F-18CF-4AB2-8C5F-507226BA31BF}" name="Key" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{3D322A3C-7A9A-401B-87E3-3AD983366FDA}" name="Player_X" dataDxfId="1"/>
@@ -606,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ECECD7-19E1-4627-A931-18B44035B88A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -637,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -647,8 +645,8 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -658,44 +656,33 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
